--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_2.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_9</t>
+          <t>model_2_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2797595766301939</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1007912879595333</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.852410957983185</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.765865079739021</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F2" t="n">
-        <v>0.79709392786026</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G2" t="n">
-        <v>2.03359055519104</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H2" t="n">
-        <v>3.089538097381592</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I2" t="n">
-        <v>2.530508041381836</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_8</t>
+          <t>model_2_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2829995785390269</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1100644253430879</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.84701371971322</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7573181544799263</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7935081124305725</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G3" t="n">
-        <v>2.012619018554688</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H3" t="n">
-        <v>3.087104558944702</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I3" t="n">
-        <v>2.51826024055481</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_14</t>
+          <t>model_2_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.287450527606169</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07016184615256993</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.550273812915778</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7467193491395625</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7885822653770447</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G4" t="n">
-        <v>2.102859973907471</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H4" t="n">
-        <v>2.953313827514648</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I4" t="n">
-        <v>2.503071784973145</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_13</t>
+          <t>model_2_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2887112157387123</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07155115905706289</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.536370149305184</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7435007619967795</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7871870994567871</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G5" t="n">
-        <v>2.09971809387207</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94704532623291</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I5" t="n">
-        <v>2.498459815979004</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_12</t>
+          <t>model_2_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2893971479687156</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07243942198133524</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.529555620410763</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7417501140868861</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F6" t="n">
-        <v>0.786427915096283</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G6" t="n">
-        <v>2.097709178924561</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H6" t="n">
-        <v>2.943972826004028</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I6" t="n">
-        <v>2.495950937271118</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_11</t>
+          <t>model_2_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.289958708911965</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07413647358617248</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.529303449906013</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7402941938508876</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7858064770698547</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G7" t="n">
-        <v>2.093871116638184</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H7" t="n">
-        <v>2.943859100341797</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4938645362854</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_10</t>
+          <t>model_2_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2906659680275582</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07549589418707769</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.524793424300174</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7384912831573347</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7850237488746643</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G8" t="n">
-        <v>2.090796947479248</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H8" t="n">
-        <v>2.94182562828064</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I8" t="n">
-        <v>2.491281032562256</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_15</t>
+          <t>model_2_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2951011334199618</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05937188386610104</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.358759704262841</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7273816971483804</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7801152467727661</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G9" t="n">
-        <v>2.127261638641357</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H9" t="n">
-        <v>2.866966247558594</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I9" t="n">
-        <v>2.475360631942749</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_7</t>
+          <t>model_2_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2961670944171896</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1736397082035096</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.949638405781962</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7193969717041859</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7789356112480164</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G10" t="n">
-        <v>1.868841409683228</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H10" t="n">
-        <v>3.133374691009521</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I10" t="n">
-        <v>2.463918685913086</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_16</t>
+          <t>model_2_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2962759212255887</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05220229544670196</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.298542246305826</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7244541126372277</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7788152694702148</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G11" t="n">
-        <v>2.143476009368896</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H11" t="n">
-        <v>2.839815855026245</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I11" t="n">
-        <v>2.471165657043457</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_17</t>
+          <t>model_2_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.296289232482438</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05046087605411698</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.288596315305419</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.724435904824013</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7788004875183105</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G12" t="n">
-        <v>2.147414207458496</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H12" t="n">
-        <v>2.835331439971924</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I12" t="n">
-        <v>2.471139430999756</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_18</t>
+          <t>model_2_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2980270062868043</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04621114842888552</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.234970243263663</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7200481802655276</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.776877224445343</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G13" t="n">
-        <v>2.157025337219238</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H13" t="n">
-        <v>2.811153411865234</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I13" t="n">
-        <v>2.46485161781311</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_19</t>
+          <t>model_2_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2982244513838613</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04356969981011249</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.216808216447307</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7195647719531877</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7766587138175964</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G14" t="n">
-        <v>2.162999153137207</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H14" t="n">
-        <v>2.802964687347412</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46415901184082</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_20</t>
+          <t>model_2_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.301530336683889</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03792849334447079</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.128489286584494</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7112017763915075</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7730001211166382</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G15" t="n">
-        <v>2.175756931304932</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H15" t="n">
-        <v>2.763144493103027</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I15" t="n">
-        <v>2.452174663543701</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_22</t>
+          <t>model_2_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3023685662252488</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03460073192761126</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.095481296637329</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.7090947323975223</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7720723748207092</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G16" t="n">
-        <v>2.183282613754272</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H16" t="n">
-        <v>2.748262166976929</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I16" t="n">
-        <v>2.449155569076538</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_21</t>
+          <t>model_2_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3024736913301861</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03539431799012316</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.098118799346342</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7088230103525857</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7719560861587524</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G17" t="n">
-        <v>2.181488037109375</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H17" t="n">
-        <v>2.749451160430908</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I17" t="n">
-        <v>2.448765754699707</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_23</t>
+          <t>model_2_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3028876438380323</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03164141465740111</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.070014878230999</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7077967249991317</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.771497905254364</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G18" t="n">
-        <v>2.189975261688232</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H18" t="n">
-        <v>2.736780166625977</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I18" t="n">
-        <v>2.447295188903809</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_24</t>
+          <t>model_2_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3029900152950207</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03152009611323492</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.067590404878074</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7075378896605442</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7713846564292908</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G19" t="n">
-        <v>2.190249443054199</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H19" t="n">
-        <v>2.735687017440796</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I19" t="n">
-        <v>2.446924209594727</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_6</t>
+          <t>model_2_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3165532209358963</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1873775721448001</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.613075147711545</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6580853877948725</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7563742995262146</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G20" t="n">
-        <v>1.837772607803345</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H20" t="n">
-        <v>2.981629133224487</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I20" t="n">
-        <v>2.376058340072632</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_5</t>
+          <t>model_2_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3388944284403571</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2254117317422968</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.430852225250895</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.59932757786447</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7316489815711975</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G21" t="n">
-        <v>1.751757144927979</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H21" t="n">
-        <v>2.899470329284668</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I21" t="n">
-        <v>2.291857481002808</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_4</t>
+          <t>model_2_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5608061295030728</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4020063621808216</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.267571633998618</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01657586089648921</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4860582053661346</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35238242149353</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H22" t="n">
-        <v>1.473246097564697</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I22" t="n">
-        <v>1.409259796142578</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_0</t>
+          <t>model_2_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8583014384191154</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C23" t="n">
-        <v>0.965887600855852</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6421442401791827</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9185145476741268</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1568185538053513</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07714632153511047</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1613459885120392</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1167697310447693</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_2</t>
+          <t>model_2_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8591113781965185</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9511526427449047</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4269706124862704</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8743446678535974</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1559221744537354</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1104699224233627</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2583610415458679</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1800657510757446</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_1</t>
+          <t>model_2_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8615761866626667</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9640042778619967</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6114267357163866</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9123929777758736</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1531943827867508</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08140552788972855</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1751955449581146</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1255420446395874</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_2_3</t>
+          <t>model_2_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8672163503462953</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9270677777984421</v>
+        <v>-0.9459796395945301</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3245050932473942</v>
+        <v>-0.1472438604251296</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8390507102455329</v>
+        <v>-0.09099460614211563</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1469523757696152</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1649386435747147</v>
+        <v>0.7651928067207336</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3045595586299896</v>
+        <v>2.127733945846558</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2306424528360367</v>
+        <v>1.406388759613037</v>
       </c>
     </row>
   </sheetData>
